--- a/src/xml/test.xlsx
+++ b/src/xml/test.xlsx
@@ -2,15 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="22995" windowHeight="9270"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="1170"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_GoBack" localSheetId="0">Sheet1!#REF!</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
   <si>
     <t>row</t>
   </si>
@@ -47,7 +50,7 @@
     <t>countrySE</t>
   </si>
   <si>
-    <t>beskrivelse</t>
+    <t>valuta</t>
   </si>
   <si>
     <t>shop</t>
@@ -59,16 +62,16 @@
     <t>mdr</t>
   </si>
   <si>
+    <t>dreng</t>
+  </si>
+  <si>
     <t>pige</t>
   </si>
   <si>
-    <t>dreng</t>
-  </si>
-  <si>
     <t>str</t>
   </si>
   <si>
-    <t>ROW1</t>
+    <t>€</t>
   </si>
   <si>
     <t>Jetzt shoppen</t>
@@ -167,7 +170,319 @@
     <t>strl.</t>
   </si>
   <si>
-    <t>Start her</t>
+    <t>Med metallic detaljer og abstrakte kunstværker i printet, tilføjet sjove statements, er din pige klædt moderigtigt på til efteråret.</t>
+  </si>
+  <si>
+    <t>Kamoflage, bison- og skull print kombineret med lækre, rå detaljer og varme jordfarver, kendetegner efterårskollektionen til drenge</t>
+  </si>
+  <si>
+    <t>Tone in tone colors, metallic details and of course a lot of soft knit for cool autumn days.
+That is what LIMITED by name it is all about.
+See the entire collection below</t>
+  </si>
+  <si>
+    <t>With metallic details and abstract art prints, ad funny statements and your girl will be fashionably dressed for the autumn to come.</t>
+  </si>
+  <si>
+    <t>Camouflage, bison and skull print combined with cool details and earthy colors, sums up the autumn collection for boys</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Ton-sur-ton-kleuren, metallic details en natuurlijk een heleboel zacht gebreide kleding voor koele herfstdagen.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Dat is typisch LIMITED by name it.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Bekijk de hele collectie hieronder</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Met metallic details en abstracte kunstprints, plus grappige statements, is jouw meisje modieus gekleed voor de komende herfst.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Camouflage, bizon en doodshoofdprints in combinatie met coole details en aardse kleuren, dat is de herfstcollectie voor jongens</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Shop nu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Ton-i-ton-färger, metalliska detaljer och självklart massor av mjuka stickade plagg för kyliga höstdagar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Det är just det LIMITED by name handlar om.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Se hela kollektionen nedan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Med metalliska detaljer och abstrakta konstmotiv plus roliga statementtryck kommer din lilla tjej att vara moderiktigt klädd under den stundande hösten.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Kamouflage-, bison- och dödskalletryck kombinerat med coola detaljer och jordiga färger sammanfattar höstkollektionen för pojkar</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Shoppa nu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Tone-i-tone-farger, metalliske detaljer og selvfølgelig massevis av myk strikk for kjølige høstdager.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Det er hva LIMITED by name it handler om.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Se hele kolleksjonen nedenfor</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Metalliske detaljer og abstrakte kunstprint – tilsett noen morsomme statements og jenta di vil være fasjonabelt kledd for den kommende høsten.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Kamuflasje-, bison- og skjelettprint kombinert med kule detaljer og jordfarger, oppsummerer høstkolleksjonen for gutter</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Shop nå</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Metallverzierungen und abstrakte Kunst-Prints sorgen für witzige Hingucker. Deine Tochter wird im kommenden Herbst modisch gekleidet sein.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Jetzt einkaufen</t>
+    </r>
   </si>
   <si>
     <t>Passende Farbtöne, Metallverzierungen und natürlich viele weiche Strickmaterialien für kühle Herbsttage.
@@ -175,328 +490,23 @@
 Entdecke die komplette Kollektion unten</t>
   </si>
   <si>
-    <t>Tone i tone, metallic detaljer og
-naturligvis en masse lækkert og blød strik til de kølige efterårs dage.
-Dét er LIMITED by name it.
-Se hele kollektionen herunder</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Ton-sur-ton-kleuren, metallic details en natuurlijk een heleboel zacht gebreide kleding voor koele herfstdagen.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Dat is typisch LIMITED by name it.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Bekijk de hele collectie hieronder</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Tone-i-tone-farger, metalliske detaljer og selvfølgelig massevis av myk strikk for kjølige høstdager.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Det er hva LIMITED by name it handler om.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Se hele kolleksjonen nedenfor</t>
-    </r>
-  </si>
-  <si>
-    <t>Tone in tone colors, metallic details and of course a lot of soft knit for cool autumn days.
-That is what LIMITED by name it is all about.
-See the entire collection below</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Ton-i-ton-färger, metalliska detaljer och självklart massor av mjuka stickade plagg för kyliga höstdagar.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Det är just det LIMITED by name handlar om.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Se hela kollektionen nedan</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Metallverzierungen und abstrakte Kunst-Prints sorgen für witzige Hingucker. Deine Tochter wird im kommenden Herbst modisch gekleidet sein.</t>
-    </r>
-  </si>
-  <si>
-    <t>Med metallic detaljer og abstrakte kunstværker i printet, tilføjet sjove statements, er din pige klædt moderigtigt på til efteråret.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Met metallic details en abstracte kunstprints, plus grappige statements, is jouw meisje modieus gekleed voor de komende herfst.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Metalliske detaljer og abstrakte kunstprint – tilsett noen morsomme statements og jenta di vil være fasjonabelt kledd for den kommende høsten.</t>
-    </r>
-  </si>
-  <si>
-    <t>With metallic details and abstract art prints, ad funny statements and your girl will be fashionably dressed for the autumn to come.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Med metalliska detaljer och abstrakta konstmotiv plus roliga statementtryck kommer din lilla tjej att vara moderiktigt klädd under den stundande hösten.</t>
-    </r>
-  </si>
-  <si>
     <t>Camouflage-Look, Büffel- und Schädel-Prints werden mit coolen Details und Erdfarben kombiniert – so sieht die Herbstkollektion für Jungen aus.</t>
   </si>
   <si>
-    <t>Kamoflage, bison- og skull print kombineret med lækre, rå detaljer og varme jordfarver, kendetegner efterårskollektionen til drenge</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Camouflage, bizon en doodshoofdprints in combinatie met coole details en aardse kleuren, dat is de herfstcollectie voor jongens</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Kamuflasje-, bison- og skjelettprint kombinert med kule detaljer og jordfarger, oppsummerer høstkolleksjonen for gutter</t>
-    </r>
-  </si>
-  <si>
-    <t>Camouflage, bison and skull print combined with cool details and earthy colors, sums up the autumn collection for boys</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Kamouflage-, bison- och dödskalletryck kombinerat med coola detaljer och jordiga färger sammanfattar höstkollektionen för pojkar</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Jetzt einkaufen</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Shop nu</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Shop nå</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Shoppa nu</t>
-    </r>
+    <t>row-1</t>
+  </si>
+  <si>
+    <t>row-2</t>
+  </si>
+  <si>
+    <t>row-3</t>
+  </si>
+  <si>
+    <t>row-4</t>
+  </si>
+  <si>
+    <t>Tone i tone, metallic detaljer og naturligvis en masse lækkert og blød strik til de kølige efterårs dage.
+Dét er LIMITED by name it.Se hele kollektionen herunder</t>
   </si>
 </sst>
 </file>
@@ -516,12 +526,18 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -536,10 +552,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -549,11 +573,176 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -592,32 +781,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H26" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:H26"/>
-  <tableColumns count="8">
-    <tableColumn id="1" uniqueName="row" name="row">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G12" tableType="xml" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" connectionId="1">
+  <autoFilter ref="A1:G12"/>
+  <tableColumns count="7">
+    <tableColumn id="1" uniqueName="row" name="row" dataDxfId="6">
       <xmlColumnPr mapId="1" xpath="/dataset/trans/@row" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="countryDE" name="countryDE">
+    <tableColumn id="2" uniqueName="countryDE" name="countryDE" dataDxfId="5">
       <xmlColumnPr mapId="1" xpath="/dataset/trans/countryDE" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="countryDK" name="countryDK">
+    <tableColumn id="3" uniqueName="countryDK" name="countryDK" dataDxfId="4">
       <xmlColumnPr mapId="1" xpath="/dataset/trans/countryDK" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="countryNL" name="countryNL">
+    <tableColumn id="4" uniqueName="countryNL" name="countryNL" dataDxfId="3">
       <xmlColumnPr mapId="1" xpath="/dataset/trans/countryNL" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="countryNO" name="countryNO">
+    <tableColumn id="5" uniqueName="countryNO" name="countryNO" dataDxfId="2">
       <xmlColumnPr mapId="1" xpath="/dataset/trans/countryNO" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="countryROE" name="countryROE">
+    <tableColumn id="6" uniqueName="countryROE" name="countryROE" dataDxfId="1">
       <xmlColumnPr mapId="1" xpath="/dataset/trans/countryROE" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="countrySE" name="countrySE">
+    <tableColumn id="7" uniqueName="countrySE" name="countrySE" dataDxfId="0">
       <xmlColumnPr mapId="1" xpath="/dataset/trans/countrySE" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="8" uniqueName="beskrivelse" name="beskrivelse">
-      <xmlColumnPr mapId="1" xpath="/dataset/trans/beskrivelse" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -911,284 +1097,360 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" ht="255" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="D11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="G11" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="E12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="153" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>69</v>
-      </c>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1202,6 +1464,7 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1214,5 +1477,6 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>